--- a/medicine/Bioéthique/Democrats_for_Life/Democrats_for_Life.xlsx
+++ b/medicine/Bioéthique/Democrats_for_Life/Democrats_for_Life.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Democrats for Life of America (DFLA, Démocrates pour la vie) est un mouvement politique aux États-Unis qui cherche à convaincre la gauche politique, et en premier lieu le Parti démocrate américain, d'adopter des positions pro-vie en défendant le « respect de la vie, du début de la vie jusqu'à la mort naturelle ». Cela implique selon ce mouvement l'opposition à l'avortement, à l'euthanasie et à la peine de mort. La position de DFLA sur l'avortement est à l'opposé de celle actuellement professée par le Parti démocrate, qui est favorable à ce que l'avortement demeure légal.
 </t>
@@ -511,10 +523,12 @@
           <t>Inspiration et arguments du DFLA</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">De nombreux membres des Démocrates pour la vie s'inspirent du concept d'« éthique cohérente de vie » (Consistent Life Ethic), initié par le cardinal Joseph Bernardin, alors archevêque de Chicago. Selon ce concept, l'opposition à l'avortement et à la peine de mort font partie d'un tout incluant une variété d'autres questions économiques et sociales.
-Démocrates pour la vie estime que le Parti démocrate a souffert électoralement de sa position pro-choix, notamment parmi les électeurs catholiques. Selon un sondage de 2003, 43 % des Démocrates étaient d'accord avec l'affirmation selon laquelle un avortement « détruit une vie humaine et est un homicide »[1].
+Démocrates pour la vie estime que le Parti démocrate a souffert électoralement de sa position pro-choix, notamment parmi les électeurs catholiques. Selon un sondage de 2003, 43 % des Démocrates étaient d'accord avec l'affirmation selon laquelle un avortement « détruit une vie humaine et est un homicide ».
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans les années 1960 et 1970, de nombreux Démocrates de premier plan étaient pro-vie, dont les candidats à la présidence et à la vice-présidence Hubert Humphrey et Sargent Shriver. Dans les années 1980, l'influence des pro-vie a décliné au sein du parti, déclin marqué par l'interdiction faite au gouverneur de Pennsylvanie, Robert Casey, de s'adresser à la convention du parti en 1992[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans les années 1960 et 1970, de nombreux Démocrates de premier plan étaient pro-vie, dont les candidats à la présidence et à la vice-présidence Hubert Humphrey et Sargent Shriver. Dans les années 1980, l'influence des pro-vie a décliné au sein du parti, déclin marqué par l'interdiction faite au gouverneur de Pennsylvanie, Robert Casey, de s'adresser à la convention du parti en 1992.
 Democrats for Life est créé en 1999 pour coordonner à l'échelle nationale les efforts des Démocrates pro-vie. Lors des élections, l'association ne soutient que des candidats Démocrates pro-vie, et n'a donc par exemple soutenu aucun candidat à l'élection présidentielle de 2004.
 </t>
         </is>
@@ -575,10 +591,12 @@
           <t>Revendications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'association estime qu'un terrain d'entente est possible avec les Démocrates pro-choix pour mettre en mesure des mesures sociales qui feraient décroître le nombre d'avortements.
-La mesure-phare défendue par Democrats for Life est la Pregnant Women Support Act, une proposition de loi déposée à la Chambre des Représentants en 2006[3]. Cette proposition de loi met l'accent sur des mesures de soutien et d'information des femmes enceintes et d'encouragement de l'adoption comme alternative à l'avortement. Elle a notamment reçu le soutien de la conférence des évêques catholiques américains, du sénateur Bob Casey Jr et de l'acteur Martin Sheen.
+La mesure-phare défendue par Democrats for Life est la Pregnant Women Support Act, une proposition de loi déposée à la Chambre des Représentants en 2006. Cette proposition de loi met l'accent sur des mesures de soutien et d'information des femmes enceintes et d'encouragement de l'adoption comme alternative à l'avortement. Elle a notamment reçu le soutien de la conférence des évêques catholiques américains, du sénateur Bob Casey Jr et de l'acteur Martin Sheen.
 </t>
         </is>
       </c>
